--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl25-Ccr10.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl25-Ccr10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,51 +543,51 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.90892</v>
+        <v>4.6982685</v>
       </c>
       <c r="H2">
-        <v>13.81784</v>
+        <v>9.396537</v>
       </c>
       <c r="I2">
-        <v>0.2006971010378393</v>
+        <v>0.1448422764790916</v>
       </c>
       <c r="J2">
-        <v>0.1527467613647123</v>
+        <v>0.108319921689495</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.1003636666666667</v>
+        <v>0.2651005</v>
       </c>
       <c r="N2">
-        <v>0.301091</v>
+        <v>0.530201</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.2682690254597046</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.2682690254597046</v>
       </c>
       <c r="Q2">
-        <v>0.6934045439066667</v>
+        <v>1.24551332848425</v>
       </c>
       <c r="R2">
-        <v>4.16042726344</v>
+        <v>4.982053313937</v>
       </c>
       <c r="S2">
-        <v>0.2006971010378393</v>
+        <v>0.03885669635641101</v>
       </c>
       <c r="T2">
-        <v>0.1527467613647123</v>
+        <v>0.02905887982951234</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.277942</v>
+        <v>4.6982685</v>
       </c>
       <c r="H3">
-        <v>15.833826</v>
+        <v>9.396537</v>
       </c>
       <c r="I3">
-        <v>0.1533188485097317</v>
+        <v>0.1448422764790916</v>
       </c>
       <c r="J3">
-        <v>0.1750321064299758</v>
+        <v>0.108319921689495</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.1003636666666667</v>
+        <v>0.7230885</v>
       </c>
       <c r="N3">
-        <v>0.301091</v>
+        <v>1.446177</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.7317309745402955</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.7317309745402955</v>
       </c>
       <c r="Q3">
-        <v>0.5297136115740001</v>
+        <v>3.39726392226225</v>
       </c>
       <c r="R3">
-        <v>4.767422504166</v>
+        <v>13.589055689049</v>
       </c>
       <c r="S3">
-        <v>0.1533188485097317</v>
+        <v>0.1059855801226806</v>
       </c>
       <c r="T3">
-        <v>0.1750321064299758</v>
+        <v>0.07926104185998266</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,51 +667,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.866044666666666</v>
+        <v>5.277942</v>
       </c>
       <c r="H4">
-        <v>17.598134</v>
+        <v>15.833826</v>
       </c>
       <c r="I4">
-        <v>0.1704026329959644</v>
+        <v>0.1627129514638446</v>
       </c>
       <c r="J4">
-        <v>0.1945353235065849</v>
+        <v>0.1825266896054461</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.1003636666666667</v>
+        <v>0.2651005</v>
       </c>
       <c r="N4">
-        <v>0.301091</v>
+        <v>0.530201</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.2682690254597046</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.2682690254597046</v>
       </c>
       <c r="Q4">
-        <v>0.5887377515771111</v>
+        <v>1.399185063171</v>
       </c>
       <c r="R4">
-        <v>5.298639764193999</v>
+        <v>8.395110379026002</v>
       </c>
       <c r="S4">
-        <v>0.1704026329959644</v>
+        <v>0.04365084491887781</v>
       </c>
       <c r="T4">
-        <v>0.1945353235065849</v>
+        <v>0.04896625714083903</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.9025095</v>
+        <v>5.277942</v>
       </c>
       <c r="H5">
-        <v>11.805019</v>
+        <v>15.833826</v>
       </c>
       <c r="I5">
-        <v>0.1714618993270014</v>
+        <v>0.1627129514638446</v>
       </c>
       <c r="J5">
-        <v>0.1304964032076572</v>
+        <v>0.1825266896054461</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.1003636666666667</v>
+        <v>0.7230885</v>
       </c>
       <c r="N5">
-        <v>0.301091</v>
+        <v>1.446177</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.7317309745402955</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.7317309745402955</v>
       </c>
       <c r="Q5">
-        <v>0.5923974959548334</v>
+        <v>3.816419163867</v>
       </c>
       <c r="R5">
-        <v>3.554384975729</v>
+        <v>22.898514983202</v>
       </c>
       <c r="S5">
-        <v>0.1714618993270014</v>
+        <v>0.1190621065449668</v>
       </c>
       <c r="T5">
-        <v>0.1304964032076572</v>
+        <v>0.1335604324646071</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,51 +791,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.426464</v>
+        <v>5.274651666666667</v>
       </c>
       <c r="H6">
-        <v>10.279392</v>
+        <v>15.823955</v>
       </c>
       <c r="I6">
-        <v>0.09953529518514022</v>
+        <v>0.162611514227898</v>
       </c>
       <c r="J6">
-        <v>0.1136316411825823</v>
+        <v>0.1824129002437912</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>0.1003636666666667</v>
+        <v>0.2651005</v>
       </c>
       <c r="N6">
-        <v>0.301091</v>
+        <v>0.530201</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.2682690254597046</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.2682690254597046</v>
       </c>
       <c r="Q6">
-        <v>0.3438924907413333</v>
+        <v>1.398312794159167</v>
       </c>
       <c r="R6">
-        <v>3.095032416672</v>
+        <v>8.389876764955002</v>
       </c>
       <c r="S6">
-        <v>0.09953529518514022</v>
+        <v>0.04362363245044507</v>
       </c>
       <c r="T6">
-        <v>0.1136316411825823</v>
+        <v>0.04893573097968017</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,46 +853,418 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.042732666666666</v>
+        <v>5.274651666666667</v>
       </c>
       <c r="H7">
-        <v>21.128198</v>
+        <v>15.823955</v>
       </c>
       <c r="I7">
-        <v>0.2045842229443229</v>
+        <v>0.162611514227898</v>
       </c>
       <c r="J7">
-        <v>0.2335577643084875</v>
+        <v>0.1824129002437912</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.1003636666666667</v>
+        <v>0.7230885</v>
       </c>
       <c r="N7">
-        <v>0.301091</v>
+        <v>1.446177</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>0.7317309745402955</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0.7317309745402955</v>
       </c>
       <c r="Q7">
-        <v>0.7068344737797777</v>
+        <v>3.8140399616725</v>
       </c>
       <c r="R7">
-        <v>6.361510264017999</v>
+        <v>22.884239770035</v>
       </c>
       <c r="S7">
-        <v>0.2045842229443229</v>
+        <v>0.1189878817774529</v>
       </c>
       <c r="T7">
-        <v>0.2335577643084875</v>
+        <v>0.133477169264111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>5.865133</v>
+      </c>
+      <c r="H8">
+        <v>11.730266</v>
+      </c>
+      <c r="I8">
+        <v>0.1808153824270886</v>
+      </c>
+      <c r="J8">
+        <v>0.1352223158932856</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.5</v>
+      </c>
+      <c r="M8">
+        <v>0.2651005</v>
+      </c>
+      <c r="N8">
+        <v>0.530201</v>
+      </c>
+      <c r="O8">
+        <v>0.2682690254597046</v>
+      </c>
+      <c r="P8">
+        <v>0.2682690254597046</v>
+      </c>
+      <c r="Q8">
+        <v>1.5548496908665</v>
+      </c>
+      <c r="R8">
+        <v>6.219398763466001</v>
+      </c>
+      <c r="S8">
+        <v>0.04850716643183887</v>
+      </c>
+      <c r="T8">
+        <v>0.03627595890509604</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5.865133</v>
+      </c>
+      <c r="H9">
+        <v>11.730266</v>
+      </c>
+      <c r="I9">
+        <v>0.1808153824270886</v>
+      </c>
+      <c r="J9">
+        <v>0.1352223158932856</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.5</v>
+      </c>
+      <c r="M9">
+        <v>0.7230885</v>
+      </c>
+      <c r="N9">
+        <v>1.446177</v>
+      </c>
+      <c r="O9">
+        <v>0.7317309745402955</v>
+      </c>
+      <c r="P9">
+        <v>0.7317309745402955</v>
+      </c>
+      <c r="Q9">
+        <v>4.2410102232705</v>
+      </c>
+      <c r="R9">
+        <v>16.964040893082</v>
+      </c>
+      <c r="S9">
+        <v>0.1323082159952498</v>
+      </c>
+      <c r="T9">
+        <v>0.09894635698818953</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>5.310348</v>
+      </c>
+      <c r="H10">
+        <v>15.931044</v>
+      </c>
+      <c r="I10">
+        <v>0.1637119916020532</v>
+      </c>
+      <c r="J10">
+        <v>0.183647383979002</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.5</v>
+      </c>
+      <c r="M10">
+        <v>0.2651005</v>
+      </c>
+      <c r="N10">
+        <v>0.530201</v>
+      </c>
+      <c r="O10">
+        <v>0.2682690254597046</v>
+      </c>
+      <c r="P10">
+        <v>0.2682690254597046</v>
+      </c>
+      <c r="Q10">
+        <v>1.407775909974</v>
+      </c>
+      <c r="R10">
+        <v>8.446655459844001</v>
+      </c>
+      <c r="S10">
+        <v>0.04391885644315017</v>
+      </c>
+      <c r="T10">
+        <v>0.04926690472827103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>5.310348</v>
+      </c>
+      <c r="H11">
+        <v>15.931044</v>
+      </c>
+      <c r="I11">
+        <v>0.1637119916020532</v>
+      </c>
+      <c r="J11">
+        <v>0.183647383979002</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>0.7230885</v>
+      </c>
+      <c r="N11">
+        <v>1.446177</v>
+      </c>
+      <c r="O11">
+        <v>0.7317309745402955</v>
+      </c>
+      <c r="P11">
+        <v>0.7317309745402955</v>
+      </c>
+      <c r="Q11">
+        <v>3.839851569798</v>
+      </c>
+      <c r="R11">
+        <v>23.039109418788</v>
+      </c>
+      <c r="S11">
+        <v>0.1197931351589031</v>
+      </c>
+      <c r="T11">
+        <v>0.1343804792507309</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>6.010791999999999</v>
+      </c>
+      <c r="H12">
+        <v>18.032376</v>
+      </c>
+      <c r="I12">
+        <v>0.1853058838000238</v>
+      </c>
+      <c r="J12">
+        <v>0.2078707885889801</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.5</v>
+      </c>
+      <c r="M12">
+        <v>0.2651005</v>
+      </c>
+      <c r="N12">
+        <v>0.530201</v>
+      </c>
+      <c r="O12">
+        <v>0.2682690254597046</v>
+      </c>
+      <c r="P12">
+        <v>0.2682690254597046</v>
+      </c>
+      <c r="Q12">
+        <v>1.593463964596</v>
+      </c>
+      <c r="R12">
+        <v>9.560783787576</v>
+      </c>
+      <c r="S12">
+        <v>0.04971182885898165</v>
+      </c>
+      <c r="T12">
+        <v>0.05576529387630597</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>6.010791999999999</v>
+      </c>
+      <c r="H13">
+        <v>18.032376</v>
+      </c>
+      <c r="I13">
+        <v>0.1853058838000238</v>
+      </c>
+      <c r="J13">
+        <v>0.2078707885889801</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <v>0.7230885</v>
+      </c>
+      <c r="N13">
+        <v>1.446177</v>
+      </c>
+      <c r="O13">
+        <v>0.7317309745402955</v>
+      </c>
+      <c r="P13">
+        <v>0.7317309745402955</v>
+      </c>
+      <c r="Q13">
+        <v>4.346334571092</v>
+      </c>
+      <c r="R13">
+        <v>26.078007426552</v>
+      </c>
+      <c r="S13">
+        <v>0.1355940549410422</v>
+      </c>
+      <c r="T13">
+        <v>0.1521054947126741</v>
       </c>
     </row>
   </sheetData>
